--- a/municipal/ENG/Education/General Educational Institution/C. Tbilisi.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/C. Tbilisi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social Statistic\General Educational Institution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\General Educational Institution\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>(At the beginning of the school year)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Public and Private General Education Schools in Tbilisi</t>
   </si>
   <si>
     <r>
@@ -104,6 +101,9 @@
       <t xml:space="preserve"> Ministry of Education and Science of Georgia.
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Public and Private General Education Schools in C. Tbilisi municipality</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -808,7 +808,7 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>

--- a/municipal/ENG/Education/General Educational Institution/C. Tbilisi.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/C. Tbilisi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\General Educational Institution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\11-სკოლები 2024\General Educational Institution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B8D03B-B068-4982-BC47-58C6A04A4863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C632DD05-D562-4068-ABAB-02A53116A322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14565" yWindow="495" windowWidth="13005" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C.Tbilisi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="68">
   <si>
     <t>Number of educational institutions, unit</t>
   </si>
@@ -324,6 +324,26 @@
   <si>
     <t>…</t>
   </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <r>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> „ ... „ - Data is confidential or unavailable.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -335,7 +355,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#\ ##0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +522,20 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -581,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -821,6 +855,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,6 +891,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K1"/>
@@ -1122,24 +1178,24 @@
     <col min="1" max="1" width="45.42578125" style="1" customWidth="1"/>
     <col min="2" max="11" width="10.28515625" style="11" customWidth="1"/>
     <col min="12" max="20" width="10.140625" style="11" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="70"/>
+    <col min="21" max="21" width="10.140625" style="70" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
       <c r="N1" s="53"/>
@@ -1176,14 +1232,14 @@
       <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -1223,7 +1279,9 @@
       <c r="H4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="61"/>
+      <c r="I4" s="97" t="s">
+        <v>65</v>
+      </c>
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -1262,7 +1320,9 @@
       <c r="H5" s="36">
         <v>188</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="98">
+        <v>190</v>
+      </c>
       <c r="J5" s="61"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -1301,7 +1361,9 @@
       <c r="H6" s="36">
         <v>52945</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="98">
+        <v>51461</v>
+      </c>
       <c r="J6" s="61"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
@@ -1340,7 +1402,9 @@
       <c r="H7" s="36">
         <v>6011</v>
       </c>
-      <c r="I7" s="61"/>
+      <c r="I7" s="98">
+        <v>6375</v>
+      </c>
       <c r="J7" s="61"/>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -1379,7 +1443,9 @@
       <c r="H8" s="63">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I8" s="64"/>
+      <c r="I8" s="99">
+        <v>8.1</v>
+      </c>
       <c r="J8" s="64"/>
       <c r="K8" s="65"/>
       <c r="L8" s="65"/>
@@ -1418,7 +1484,9 @@
       <c r="H9" s="67">
         <v>42.352018910222398</v>
       </c>
-      <c r="I9" s="62"/>
+      <c r="I9" s="100" t="s">
+        <v>66</v>
+      </c>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
@@ -1457,7 +1525,9 @@
       <c r="H10" s="68">
         <v>6649.5611702127699</v>
       </c>
-      <c r="I10" s="75"/>
+      <c r="I10" s="101">
+        <v>6649.6</v>
+      </c>
       <c r="J10" s="75"/>
       <c r="K10" s="75"/>
       <c r="L10" s="75"/>
@@ -1545,21 +1615,21 @@
       <c r="U14" s="55"/>
     </row>
     <row r="15" spans="1:21" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
       <c r="N15" s="76"/>
       <c r="O15" s="62"/>
       <c r="P15" s="62"/>
@@ -1628,7 +1698,9 @@
       <c r="T16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="U16" s="55"/>
+      <c r="U16" s="31" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="17" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A17" s="32" t="s">
@@ -1691,7 +1763,9 @@
       <c r="T17" s="35">
         <v>289</v>
       </c>
-      <c r="U17" s="55"/>
+      <c r="U17" s="102">
+        <v>285</v>
+      </c>
     </row>
     <row r="18" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A18" s="11" t="s">
@@ -1754,7 +1828,9 @@
       <c r="T18" s="37">
         <v>225293</v>
       </c>
-      <c r="U18" s="55"/>
+      <c r="U18" s="103">
+        <v>229149</v>
+      </c>
     </row>
     <row r="19" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A19" s="38" t="s">
@@ -1815,10 +1891,12 @@
         <f>S20+S21</f>
         <v>20090</v>
       </c>
-      <c r="T19" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="U19" s="55"/>
+      <c r="T19" s="88">
+        <v>20046</v>
+      </c>
+      <c r="U19" s="103" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A20" s="11" t="s">
@@ -1878,10 +1956,12 @@
       <c r="S20" s="89">
         <v>9779</v>
       </c>
-      <c r="T20" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="U20" s="55"/>
+      <c r="T20" s="88">
+        <v>9705</v>
+      </c>
+      <c r="U20" s="103" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A21" s="11" t="s">
@@ -1941,10 +2021,12 @@
       <c r="S21" s="89">
         <v>10311</v>
       </c>
-      <c r="T21" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="U21" s="55"/>
+      <c r="T21" s="88">
+        <v>10341</v>
+      </c>
+      <c r="U21" s="103" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A22" s="38" t="s">
@@ -2005,10 +2087,12 @@
         <f>S23+S24</f>
         <v>17205</v>
       </c>
-      <c r="T22" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="U22" s="55"/>
+      <c r="T22" s="88">
+        <v>16943</v>
+      </c>
+      <c r="U22" s="103" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A23" s="11" t="s">
@@ -2068,10 +2152,12 @@
       <c r="S23" s="89">
         <v>8382</v>
       </c>
-      <c r="T23" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="U23" s="55"/>
+      <c r="T23" s="88">
+        <v>8188</v>
+      </c>
+      <c r="U23" s="103" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A24" s="11" t="s">
@@ -2131,10 +2217,12 @@
       <c r="S24" s="89">
         <v>8823</v>
       </c>
-      <c r="T24" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="U24" s="55"/>
+      <c r="T24" s="88">
+        <v>8755</v>
+      </c>
+      <c r="U24" s="103" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A25" s="38" t="s">
@@ -2195,10 +2283,12 @@
         <f>S26+S27</f>
         <v>16567</v>
       </c>
-      <c r="T25" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="U25" s="55"/>
+      <c r="T25" s="88">
+        <v>14659</v>
+      </c>
+      <c r="U25" s="103" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A26" s="11" t="s">
@@ -2258,10 +2348,12 @@
       <c r="S26" s="89">
         <v>8174</v>
       </c>
-      <c r="T26" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="U26" s="55"/>
+      <c r="T26" s="88">
+        <v>7201</v>
+      </c>
+      <c r="U26" s="103" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A27" s="11" t="s">
@@ -2321,10 +2413,12 @@
       <c r="S27" s="89">
         <v>8393</v>
       </c>
-      <c r="T27" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="U27" s="55"/>
+      <c r="T27" s="88">
+        <v>7458</v>
+      </c>
+      <c r="U27" s="103" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:21" s="19" customFormat="1" ht="26.25">
       <c r="A28" s="38" t="s">
@@ -2384,10 +2478,12 @@
       <c r="S28" s="92">
         <v>13.560179383649045</v>
       </c>
-      <c r="T28" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="U28" s="55"/>
+      <c r="T28" s="92">
+        <v>13.3</v>
+      </c>
+      <c r="U28" s="103" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="29" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A29" s="11" t="s">
@@ -2450,7 +2546,9 @@
       <c r="T29" s="16">
         <v>14102</v>
       </c>
-      <c r="U29" s="55"/>
+      <c r="U29" s="16">
+        <v>15821</v>
+      </c>
     </row>
     <row r="30" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A30" s="11" t="s">
@@ -2513,7 +2611,9 @@
       <c r="T30" s="16">
         <v>12930</v>
       </c>
-      <c r="U30" s="55"/>
+      <c r="U30" s="16">
+        <v>14375</v>
+      </c>
     </row>
     <row r="31" spans="1:21" s="19" customFormat="1" ht="15">
       <c r="A31" s="13" t="s">
@@ -2576,14 +2676,16 @@
       <c r="T31" s="17">
         <v>1172</v>
       </c>
-      <c r="U31" s="55"/>
+      <c r="U31" s="17">
+        <v>1446</v>
+      </c>
     </row>
     <row r="32" spans="1:21" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="76"/>
       <c r="E32" s="76"/>
       <c r="F32" s="76"/>
@@ -2604,13 +2706,13 @@
       <c r="U32" s="55"/>
     </row>
     <row r="33" spans="1:21" s="19" customFormat="1" ht="15">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
       <c r="F33" s="76"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -2628,1204 +2730,1187 @@
       <c r="T33" s="62"/>
       <c r="U33" s="55"/>
     </row>
-    <row r="36" spans="1:21" ht="26.25" customHeight="1">
-      <c r="A36" s="40" t="s">
+    <row r="34" spans="1:21">
+      <c r="A34" s="111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="111"/>
+    </row>
+    <row r="37" spans="1:21" ht="26.25" customHeight="1">
+      <c r="A37" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="2"/>
-      <c r="B37" s="39">
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="2"/>
+      <c r="B38" s="39">
         <v>2014</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C38" s="39">
         <v>2015</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D38" s="39">
         <v>2016</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E38" s="39">
         <v>2017</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F38" s="39">
         <v>2018</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G38" s="39">
         <v>2019</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H38" s="39">
         <v>2020</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I38" s="39">
         <v>2021</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J38" s="39">
         <v>2022</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K38" s="39">
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:21" ht="18.75" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="71">
+      <c r="B39" s="71">
         <v>70</v>
       </c>
-      <c r="C38" s="71">
+      <c r="C39" s="71">
         <v>72</v>
       </c>
-      <c r="D38" s="71">
+      <c r="D39" s="71">
         <v>58</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E39" s="71">
         <v>59</v>
       </c>
-      <c r="F38" s="72">
+      <c r="F39" s="72">
         <v>56</v>
       </c>
-      <c r="G38" s="71">
+      <c r="G39" s="71">
         <v>48</v>
       </c>
-      <c r="H38" s="72">
+      <c r="H39" s="72">
         <v>41</v>
       </c>
-      <c r="I38" s="71">
+      <c r="I39" s="71">
         <v>42</v>
       </c>
-      <c r="J38" s="71">
+      <c r="J39" s="71">
         <v>42</v>
       </c>
-      <c r="K38" s="71">
+      <c r="K39" s="71">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1">
-      <c r="A39" s="10" t="s">
+    <row r="40" spans="1:21" ht="15" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B40" s="14">
         <v>7904</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C40" s="14">
         <v>8175</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <v>7284</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>7056</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F40" s="14">
         <v>5517</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="14">
         <v>5371</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H40" s="14">
         <v>3654</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I40" s="14">
         <v>4289</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J40" s="14">
         <v>5180</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K40" s="14">
         <v>5902</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1">
-      <c r="A40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="14">
-        <v>4106</v>
-      </c>
-      <c r="C40" s="14">
-        <v>4211</v>
-      </c>
-      <c r="D40" s="14">
-        <v>3773</v>
-      </c>
-      <c r="E40" s="14">
-        <v>3654</v>
-      </c>
-      <c r="F40" s="14">
-        <v>2906</v>
-      </c>
-      <c r="G40" s="14">
-        <v>2967</v>
-      </c>
-      <c r="H40" s="14">
-        <v>2030</v>
-      </c>
-      <c r="I40" s="14">
-        <v>2513</v>
-      </c>
-      <c r="J40" s="14">
-        <v>2802</v>
-      </c>
-      <c r="K40" s="14">
-        <v>3219</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15" customHeight="1">
       <c r="A41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="14">
+        <v>4106</v>
+      </c>
+      <c r="C41" s="14">
+        <v>4211</v>
+      </c>
+      <c r="D41" s="14">
+        <v>3773</v>
+      </c>
+      <c r="E41" s="14">
+        <v>3654</v>
+      </c>
+      <c r="F41" s="14">
+        <v>2906</v>
+      </c>
+      <c r="G41" s="14">
+        <v>2967</v>
+      </c>
+      <c r="H41" s="14">
+        <v>2030</v>
+      </c>
+      <c r="I41" s="14">
+        <v>2513</v>
+      </c>
+      <c r="J41" s="14">
+        <v>2802</v>
+      </c>
+      <c r="K41" s="14">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15" customHeight="1">
+      <c r="A42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B42" s="14">
         <v>3798</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C42" s="14">
         <v>3964</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <v>3511</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="14">
         <v>3402</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F42" s="14">
         <v>2611</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="14">
         <v>2404</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H42" s="14">
         <v>1624</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I42" s="14">
         <v>1776</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J42" s="14">
         <v>2378</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K42" s="14">
         <v>2683</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1">
-      <c r="A42" s="10" t="s">
+    <row r="43" spans="1:21" ht="15" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B43" s="14">
         <v>4395</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C43" s="14">
         <v>4996</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <v>4234</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E43" s="14">
         <v>3863</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F43" s="14">
         <v>4562</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <v>4441</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H43" s="14">
         <v>1156</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I43" s="14">
         <v>2575</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J43" s="14">
         <v>2434</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K43" s="14">
         <v>2604</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1">
-      <c r="A43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="14">
-        <v>2400</v>
-      </c>
-      <c r="C43" s="14">
-        <v>2694</v>
-      </c>
-      <c r="D43" s="14">
-        <v>2391</v>
-      </c>
-      <c r="E43" s="14">
-        <v>2059</v>
-      </c>
-      <c r="F43" s="14">
-        <v>1952</v>
-      </c>
-      <c r="G43" s="14">
-        <v>2529</v>
-      </c>
-      <c r="H43" s="14">
-        <v>724</v>
-      </c>
-      <c r="I43" s="14">
-        <v>1542</v>
-      </c>
-      <c r="J43" s="14">
-        <v>1472</v>
-      </c>
-      <c r="K43" s="14">
-        <v>1642</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" customHeight="1">
       <c r="A44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="14">
+        <v>2400</v>
+      </c>
+      <c r="C44" s="14">
+        <v>2694</v>
+      </c>
+      <c r="D44" s="14">
+        <v>2391</v>
+      </c>
+      <c r="E44" s="14">
+        <v>2059</v>
+      </c>
+      <c r="F44" s="14">
+        <v>1952</v>
+      </c>
+      <c r="G44" s="14">
+        <v>2529</v>
+      </c>
+      <c r="H44" s="14">
+        <v>724</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1542</v>
+      </c>
+      <c r="J44" s="14">
+        <v>1472</v>
+      </c>
+      <c r="K44" s="14">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15" customHeight="1">
+      <c r="A45" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B45" s="14">
         <v>1995</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C45" s="14">
         <v>2302</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <v>1843</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E45" s="14">
         <v>1804</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>2610</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <v>1912</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H45" s="14">
         <v>432</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I45" s="14">
         <v>1033</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J45" s="14">
         <v>962</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K45" s="14">
         <v>962</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="12" t="s">
+    <row r="46" spans="1:21">
+      <c r="A46" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B46" s="15">
         <v>3.9650104741232299</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C46" s="15">
         <v>4.4455300222321004</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D46" s="15">
         <v>3.71821645042934</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>3.3530788563770302</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="15">
         <v>3.9162899462433001</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G46" s="15">
         <v>3.7701138886801902</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H46" s="15">
         <v>0.96835708921576102</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I46" s="15">
         <v>2.14181742566022</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J46" s="15">
         <v>1.99224220557746</v>
       </c>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1">
-      <c r="A46" s="12" t="s">
+      <c r="K46" s="15"/>
+    </row>
+    <row r="47" spans="1:21" ht="15" customHeight="1">
+      <c r="A47" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B47" s="16">
         <v>1550</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C47" s="16">
         <v>2181</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <v>1967</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E47" s="16">
         <v>2076</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="16">
         <v>2485</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G47" s="16">
         <v>2545</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H47" s="16">
         <v>2254</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I47" s="16">
         <v>2521</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J47" s="16">
         <v>2738</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K47" s="16">
         <v>2457</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1">
-      <c r="A47" s="11" t="s">
+    <row r="48" spans="1:21" ht="15" customHeight="1">
+      <c r="A48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B48" s="16">
         <v>1085</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C48" s="16">
         <v>1503</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <v>1361</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E48" s="16">
         <v>1411</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F48" s="16">
         <v>1639</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G48" s="16">
         <v>1721</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H48" s="16">
         <v>1591</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I48" s="16">
         <v>1823</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J48" s="16">
         <v>2040</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K48" s="16">
         <v>1844</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1">
-      <c r="A48" s="13" t="s">
+    <row r="49" spans="1:13" ht="15" customHeight="1">
+      <c r="A49" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B49" s="17">
         <v>465</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C49" s="17">
         <v>678</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="17">
         <v>606</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>665</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>846</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G49" s="17">
         <v>824</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H49" s="17">
         <v>663</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I49" s="17">
         <v>698</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J49" s="17">
         <v>698</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K49" s="17">
         <v>613</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="5" t="s">
+    <row r="50" spans="1:13">
+      <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="6"/>
-    </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:13" ht="24" customHeight="1">
-      <c r="A52" s="40" t="s">
+      <c r="A51" s="6"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" ht="24" customHeight="1">
+      <c r="A53" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="7" t="s">
+    <row r="54" spans="1:13">
+      <c r="A54" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="8"/>
-      <c r="B54" s="39" t="s">
+    <row r="55" spans="1:13">
+      <c r="A55" s="8"/>
+      <c r="B55" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C55" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D55" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E55" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="F55" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G55" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="H55" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="39" t="s">
+      <c r="I55" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="J54" s="39" t="s">
+      <c r="J55" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K54" s="39" t="s">
+      <c r="K55" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="39" t="s">
+      <c r="L55" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="M54" s="39" t="s">
+      <c r="M55" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="18" t="s">
+    <row r="56" spans="1:13">
+      <c r="A56" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="73">
+      <c r="B56" s="73">
         <v>35</v>
       </c>
-      <c r="C55" s="73">
+      <c r="C56" s="73">
         <v>41</v>
       </c>
-      <c r="D55" s="73">
+      <c r="D56" s="73">
         <v>46</v>
       </c>
-      <c r="E55" s="73">
+      <c r="E56" s="73">
         <v>47</v>
       </c>
-      <c r="F55" s="73">
+      <c r="F56" s="73">
         <v>47</v>
       </c>
-      <c r="G55" s="73">
+      <c r="G56" s="73">
         <v>48</v>
       </c>
-      <c r="H55" s="73">
+      <c r="H56" s="73">
         <v>39</v>
       </c>
-      <c r="I55" s="73">
+      <c r="I56" s="73">
         <v>37</v>
       </c>
-      <c r="J55" s="73">
+      <c r="J56" s="73">
         <v>39</v>
       </c>
-      <c r="K55" s="73">
+      <c r="K56" s="73">
         <v>39</v>
       </c>
-      <c r="L55" s="73">
+      <c r="L56" s="73">
         <v>40</v>
       </c>
-      <c r="M55" s="73">
+      <c r="M56" s="73">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="10" t="s">
+    <row r="57" spans="1:13">
+      <c r="A57" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="78">
+      <c r="B57" s="78">
         <v>25788</v>
       </c>
-      <c r="C56" s="78">
+      <c r="C57" s="78">
         <v>30575</v>
       </c>
-      <c r="D56" s="78">
+      <c r="D57" s="78">
         <v>30034</v>
       </c>
-      <c r="E56" s="78">
+      <c r="E57" s="78">
         <v>30107</v>
       </c>
-      <c r="F56" s="78">
+      <c r="F57" s="78">
         <v>29420</v>
       </c>
-      <c r="G56" s="78">
+      <c r="G57" s="78">
         <v>32359</v>
       </c>
-      <c r="H56" s="78">
+      <c r="H57" s="78">
         <v>31959</v>
       </c>
-      <c r="I56" s="78">
+      <c r="I57" s="78">
         <v>32777</v>
       </c>
-      <c r="J56" s="78">
+      <c r="J57" s="78">
         <v>34768</v>
       </c>
-      <c r="K56" s="78">
+      <c r="K57" s="78">
         <v>33340</v>
       </c>
-      <c r="L56" s="78">
+      <c r="L57" s="78">
         <v>36875</v>
       </c>
-      <c r="M56" s="78">
+      <c r="M57" s="78">
         <v>30922</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="78">
-        <v>13693</v>
-      </c>
-      <c r="C57" s="78">
-        <v>15790</v>
-      </c>
-      <c r="D57" s="78">
-        <v>14908</v>
-      </c>
-      <c r="E57" s="78">
-        <v>14342</v>
-      </c>
-      <c r="F57" s="78">
-        <v>14649</v>
-      </c>
-      <c r="G57" s="78">
-        <v>15738</v>
-      </c>
-      <c r="H57" s="78">
-        <v>16580</v>
-      </c>
-      <c r="I57" s="78">
-        <v>16543</v>
-      </c>
-      <c r="J57" s="78">
-        <v>18706</v>
-      </c>
-      <c r="K57" s="78">
-        <v>17268</v>
-      </c>
-      <c r="L57" s="78">
-        <v>18861</v>
-      </c>
-      <c r="M57" s="78">
-        <v>16132</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="78">
+        <v>13693</v>
+      </c>
+      <c r="C58" s="78">
+        <v>15790</v>
+      </c>
+      <c r="D58" s="78">
+        <v>14908</v>
+      </c>
+      <c r="E58" s="78">
+        <v>14342</v>
+      </c>
+      <c r="F58" s="78">
+        <v>14649</v>
+      </c>
+      <c r="G58" s="78">
+        <v>15738</v>
+      </c>
+      <c r="H58" s="78">
+        <v>16580</v>
+      </c>
+      <c r="I58" s="78">
+        <v>16543</v>
+      </c>
+      <c r="J58" s="78">
+        <v>18706</v>
+      </c>
+      <c r="K58" s="78">
+        <v>17268</v>
+      </c>
+      <c r="L58" s="78">
+        <v>18861</v>
+      </c>
+      <c r="M58" s="78">
+        <v>16132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="78">
+      <c r="B59" s="78">
         <v>12095</v>
       </c>
-      <c r="C58" s="78">
+      <c r="C59" s="78">
         <v>14785</v>
       </c>
-      <c r="D58" s="78">
+      <c r="D59" s="78">
         <v>15126</v>
       </c>
-      <c r="E58" s="78">
+      <c r="E59" s="78">
         <v>15765</v>
       </c>
-      <c r="F58" s="78">
+      <c r="F59" s="78">
         <v>14771</v>
       </c>
-      <c r="G58" s="78">
+      <c r="G59" s="78">
         <v>16621</v>
       </c>
-      <c r="H58" s="78">
+      <c r="H59" s="78">
         <v>15379</v>
       </c>
-      <c r="I58" s="78">
+      <c r="I59" s="78">
         <v>16234</v>
       </c>
-      <c r="J58" s="78">
+      <c r="J59" s="78">
         <v>16062</v>
       </c>
-      <c r="K58" s="78">
+      <c r="K59" s="78">
         <v>16072</v>
       </c>
-      <c r="L58" s="78">
+      <c r="L59" s="78">
         <v>18014</v>
       </c>
-      <c r="M58" s="78">
+      <c r="M59" s="78">
         <v>14790</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="10" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="78">
+      <c r="B60" s="78">
         <v>12660</v>
       </c>
-      <c r="C59" s="78">
+      <c r="C60" s="78">
         <v>14039</v>
       </c>
-      <c r="D59" s="78">
+      <c r="D60" s="78">
         <v>15806</v>
       </c>
-      <c r="E59" s="78">
+      <c r="E60" s="78">
         <v>14891</v>
       </c>
-      <c r="F59" s="78">
+      <c r="F60" s="78">
         <v>16593</v>
       </c>
-      <c r="G59" s="78">
+      <c r="G60" s="78">
         <v>17759</v>
       </c>
-      <c r="H59" s="78">
+      <c r="H60" s="78">
         <v>17675</v>
       </c>
-      <c r="I59" s="78">
+      <c r="I60" s="78">
         <v>17921</v>
       </c>
-      <c r="J59" s="78">
+      <c r="J60" s="78">
         <v>17678</v>
       </c>
-      <c r="K59" s="78">
+      <c r="K60" s="78">
         <v>19075</v>
       </c>
-      <c r="L59" s="78">
+      <c r="L60" s="78">
         <v>19275</v>
       </c>
-      <c r="M59" s="78">
+      <c r="M60" s="78">
         <v>19675</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="78">
-        <v>7184</v>
-      </c>
-      <c r="C60" s="78">
-        <v>8770</v>
-      </c>
-      <c r="D60" s="78">
-        <v>9742</v>
-      </c>
-      <c r="E60" s="78">
-        <v>9231</v>
-      </c>
-      <c r="F60" s="78">
-        <v>10311</v>
-      </c>
-      <c r="G60" s="78">
-        <v>10909</v>
-      </c>
-      <c r="H60" s="78">
-        <v>10042</v>
-      </c>
-      <c r="I60" s="78">
-        <v>10210</v>
-      </c>
-      <c r="J60" s="78">
-        <v>10462</v>
-      </c>
-      <c r="K60" s="78">
-        <v>10915</v>
-      </c>
-      <c r="L60" s="78">
-        <v>11695</v>
-      </c>
-      <c r="M60" s="78">
-        <v>12025</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="78">
+        <v>7184</v>
+      </c>
+      <c r="C61" s="78">
+        <v>8770</v>
+      </c>
+      <c r="D61" s="78">
+        <v>9742</v>
+      </c>
+      <c r="E61" s="78">
+        <v>9231</v>
+      </c>
+      <c r="F61" s="78">
+        <v>10311</v>
+      </c>
+      <c r="G61" s="78">
+        <v>10909</v>
+      </c>
+      <c r="H61" s="78">
+        <v>10042</v>
+      </c>
+      <c r="I61" s="78">
+        <v>10210</v>
+      </c>
+      <c r="J61" s="78">
+        <v>10462</v>
+      </c>
+      <c r="K61" s="78">
+        <v>10915</v>
+      </c>
+      <c r="L61" s="78">
+        <v>11695</v>
+      </c>
+      <c r="M61" s="78">
+        <v>12025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="78">
+      <c r="B62" s="78">
         <v>5476</v>
       </c>
-      <c r="C61" s="78">
+      <c r="C62" s="78">
         <v>5269</v>
       </c>
-      <c r="D61" s="78">
+      <c r="D62" s="78">
         <v>6064</v>
       </c>
-      <c r="E61" s="78">
+      <c r="E62" s="78">
         <v>5660</v>
       </c>
-      <c r="F61" s="78">
+      <c r="F62" s="78">
         <v>6282</v>
       </c>
-      <c r="G61" s="78">
+      <c r="G62" s="78">
         <v>6850</v>
       </c>
-      <c r="H61" s="78">
+      <c r="H62" s="78">
         <v>7633</v>
       </c>
-      <c r="I61" s="78">
+      <c r="I62" s="78">
         <v>7711</v>
       </c>
-      <c r="J61" s="78">
+      <c r="J62" s="78">
         <v>7216</v>
       </c>
-      <c r="K61" s="78">
+      <c r="K62" s="78">
         <v>8160</v>
       </c>
-      <c r="L61" s="78">
+      <c r="L62" s="78">
         <v>7580</v>
       </c>
-      <c r="M61" s="78">
+      <c r="M62" s="78">
         <v>7650</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="15">
-        <v>11.544743175059706</v>
-      </c>
-      <c r="C62" s="15">
-        <v>12.665479418934257</v>
-      </c>
-      <c r="D62" s="15">
-        <v>14.064461075140224</v>
-      </c>
-      <c r="E62" s="15">
-        <v>13.076986576132105</v>
-      </c>
-      <c r="F62" s="15">
-        <v>14.402701906255277</v>
-      </c>
-      <c r="G62" s="15">
-        <v>15.24537333523339</v>
-      </c>
-      <c r="H62" s="15">
-        <v>15.004900468908446</v>
-      </c>
-      <c r="I62" s="15">
-        <v>15.01204792027305</v>
-      </c>
-      <c r="J62" s="15">
-        <v>14.704096485755874</v>
-      </c>
-      <c r="K62" s="15">
-        <v>15.612990990710781</v>
-      </c>
-      <c r="L62" s="78"/>
-      <c r="M62" s="78"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="15">
+        <v>11.544743175059706</v>
+      </c>
+      <c r="C63" s="15">
+        <v>12.665479418934257</v>
+      </c>
+      <c r="D63" s="15">
+        <v>14.064461075140224</v>
+      </c>
+      <c r="E63" s="15">
+        <v>13.076986576132105</v>
+      </c>
+      <c r="F63" s="15">
+        <v>14.402701906255277</v>
+      </c>
+      <c r="G63" s="15">
+        <v>15.24537333523339</v>
+      </c>
+      <c r="H63" s="15">
+        <v>15.004900468908446</v>
+      </c>
+      <c r="I63" s="15">
+        <v>15.01204792027305</v>
+      </c>
+      <c r="J63" s="15">
+        <v>14.704096485755874</v>
+      </c>
+      <c r="K63" s="15">
+        <v>15.612990990710781</v>
+      </c>
+      <c r="L63" s="78"/>
+      <c r="M63" s="78"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="78">
+      <c r="B64" s="78">
         <v>4606</v>
       </c>
-      <c r="C63" s="78">
+      <c r="C64" s="78">
         <v>6067</v>
       </c>
-      <c r="D63" s="78">
+      <c r="D64" s="78">
         <v>5896</v>
       </c>
-      <c r="E63" s="78">
+      <c r="E64" s="78">
         <v>5895</v>
       </c>
-      <c r="F63" s="78">
+      <c r="F64" s="78">
         <v>5662</v>
       </c>
-      <c r="G63" s="78">
+      <c r="G64" s="78">
         <v>5880</v>
       </c>
-      <c r="H63" s="78">
+      <c r="H64" s="78">
         <v>1685</v>
       </c>
-      <c r="I63" s="78">
+      <c r="I64" s="78">
         <v>1641</v>
       </c>
-      <c r="J63" s="78">
+      <c r="J64" s="78">
         <v>1740</v>
       </c>
-      <c r="K63" s="78">
+      <c r="K64" s="78">
         <v>1934</v>
       </c>
-      <c r="L63" s="78">
+      <c r="L64" s="78">
         <v>1956</v>
       </c>
-      <c r="M63" s="78">
+      <c r="M64" s="78">
         <v>2022</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="11" t="s">
+    <row r="65" spans="1:21">
+      <c r="A65" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="78">
+      <c r="B65" s="78">
         <v>2209</v>
       </c>
-      <c r="C64" s="78">
+      <c r="C65" s="78">
         <v>2297</v>
       </c>
-      <c r="D64" s="78">
+      <c r="D65" s="78">
         <v>3046</v>
       </c>
-      <c r="E64" s="78">
+      <c r="E65" s="78">
         <v>2941</v>
       </c>
-      <c r="F64" s="78">
+      <c r="F65" s="78">
         <v>2969</v>
       </c>
-      <c r="G64" s="78">
+      <c r="G65" s="78">
         <v>3163</v>
       </c>
-      <c r="H64" s="78">
+      <c r="H65" s="78">
         <v>749</v>
       </c>
-      <c r="I64" s="78">
+      <c r="I65" s="78">
         <v>625</v>
       </c>
-      <c r="J64" s="78">
+      <c r="J65" s="78">
         <v>634</v>
       </c>
-      <c r="K64" s="78">
+      <c r="K65" s="78">
         <v>727</v>
       </c>
-      <c r="L64" s="78">
+      <c r="L65" s="78">
         <v>789</v>
       </c>
-      <c r="M64" s="78">
+      <c r="M65" s="78">
         <v>820</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
-      <c r="A65" s="13" t="s">
+    <row r="66" spans="1:21">
+      <c r="A66" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="79">
+      <c r="B66" s="79">
         <v>2397</v>
       </c>
-      <c r="C65" s="79">
+      <c r="C66" s="79">
         <v>3770</v>
       </c>
-      <c r="D65" s="79">
+      <c r="D66" s="79">
         <v>2850</v>
       </c>
-      <c r="E65" s="79">
+      <c r="E66" s="79">
         <v>2954</v>
       </c>
-      <c r="F65" s="79">
+      <c r="F66" s="79">
         <v>2693</v>
       </c>
-      <c r="G65" s="79">
+      <c r="G66" s="79">
         <v>2717</v>
       </c>
-      <c r="H65" s="79">
+      <c r="H66" s="79">
         <v>936</v>
       </c>
-      <c r="I65" s="79">
+      <c r="I66" s="79">
         <v>1016</v>
       </c>
-      <c r="J65" s="79">
+      <c r="J66" s="79">
         <v>1106</v>
       </c>
-      <c r="K65" s="79">
+      <c r="K66" s="79">
         <v>1207</v>
       </c>
-      <c r="L65" s="79">
+      <c r="L66" s="79">
         <v>1167</v>
       </c>
-      <c r="M65" s="79">
+      <c r="M66" s="79">
         <v>1202</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
-      <c r="A66" s="9"/>
-    </row>
-    <row r="68" spans="1:21" s="41" customFormat="1" ht="30" customHeight="1">
-      <c r="A68" s="53" t="s">
+    <row r="67" spans="1:21">
+      <c r="A67" s="9"/>
+    </row>
+    <row r="69" spans="1:21" s="41" customFormat="1" ht="30" customHeight="1">
+      <c r="A69" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
-    </row>
-    <row r="69" spans="1:21" s="41" customFormat="1" ht="15">
-      <c r="A69" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="82"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="82"/>
-      <c r="I69" s="82"/>
-      <c r="J69" s="82"/>
-      <c r="K69" s="82"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="82"/>
-      <c r="N69" s="82"/>
-      <c r="O69" s="82"/>
-      <c r="P69" s="82"/>
-      <c r="Q69" s="82"/>
-      <c r="R69" s="82"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="53"/>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
       <c r="U69" s="11"/>
     </row>
-    <row r="70" spans="1:21" s="41" customFormat="1" ht="12.75">
-      <c r="A70" s="42"/>
-      <c r="B70" s="95" t="s">
+    <row r="70" spans="1:21" s="41" customFormat="1" ht="15">
+      <c r="A70" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="82"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
+      <c r="J70" s="82"/>
+      <c r="K70" s="82"/>
+      <c r="L70" s="82"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="82"/>
+      <c r="O70" s="82"/>
+      <c r="P70" s="82"/>
+      <c r="Q70" s="82"/>
+      <c r="R70" s="82"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+    </row>
+    <row r="71" spans="1:21" s="41" customFormat="1" ht="12.75">
+      <c r="A71" s="42"/>
+      <c r="B71" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="95" t="s">
+      <c r="C71" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="95" t="s">
+      <c r="D71" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="95" t="s">
+      <c r="E71" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="F70" s="95" t="s">
+      <c r="F71" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="G70" s="95" t="s">
+      <c r="G71" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="H70" s="95" t="s">
+      <c r="H71" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="I70" s="95" t="s">
+      <c r="I71" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="J70" s="95" t="s">
+      <c r="J71" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="K70" s="95" t="s">
+      <c r="K71" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="L70" s="95" t="s">
+      <c r="L71" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="M70" s="95" t="s">
+      <c r="M71" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="N70" s="95" t="s">
+      <c r="N71" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="O70" s="95" t="s">
+      <c r="O71" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="P70" s="95" t="s">
+      <c r="P71" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q70" s="96" t="s">
+      <c r="Q71" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="R70" s="96" t="s">
+      <c r="R71" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="S70" s="96" t="s">
+      <c r="S71" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="T70" s="96" t="s">
+      <c r="T71" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="U70" s="11"/>
-    </row>
-    <row r="71" spans="1:21" s="41" customFormat="1" ht="12.75">
-      <c r="A71" s="41" t="s">
+      <c r="U71" s="11"/>
+    </row>
+    <row r="72" spans="1:21" s="41" customFormat="1" ht="12.75">
+      <c r="A72" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="43">
+      <c r="B72" s="43">
         <v>28</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C72" s="43">
         <v>19</v>
       </c>
-      <c r="D71" s="43">
+      <c r="D72" s="43">
         <v>19</v>
       </c>
-      <c r="E71" s="43">
+      <c r="E72" s="43">
         <v>16</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F72" s="43">
         <v>16</v>
       </c>
-      <c r="G71" s="43">
+      <c r="G72" s="43">
         <v>15</v>
       </c>
-      <c r="H71" s="43">
+      <c r="H72" s="43">
         <v>15</v>
       </c>
-      <c r="I71" s="43">
+      <c r="I72" s="43">
         <v>15</v>
       </c>
-      <c r="J71" s="43">
+      <c r="J72" s="43">
         <v>15</v>
       </c>
-      <c r="K71" s="43">
+      <c r="K72" s="43">
         <v>15</v>
       </c>
-      <c r="L71" s="43">
+      <c r="L72" s="43">
         <v>15</v>
       </c>
-      <c r="M71" s="43">
+      <c r="M72" s="43">
         <v>13</v>
       </c>
-      <c r="N71" s="43">
+      <c r="N72" s="43">
         <v>15</v>
       </c>
-      <c r="O71" s="43">
+      <c r="O72" s="43">
         <v>15</v>
       </c>
-      <c r="P71" s="43">
+      <c r="P72" s="43">
         <v>15</v>
       </c>
-      <c r="Q71" s="43">
+      <c r="Q72" s="43">
         <v>15</v>
       </c>
-      <c r="R71" s="43">
+      <c r="R72" s="43">
         <v>13</v>
       </c>
-      <c r="S71" s="11">
+      <c r="S72" s="11">
         <v>15</v>
       </c>
-      <c r="T71" s="11">
+      <c r="T72" s="11">
         <v>13</v>
       </c>
-      <c r="U71" s="11"/>
-    </row>
-    <row r="72" spans="1:21" s="41" customFormat="1" ht="12.75">
-      <c r="A72" s="44" t="s">
+      <c r="U72" s="11"/>
+    </row>
+    <row r="73" spans="1:21" s="41" customFormat="1" ht="12.75">
+      <c r="A73" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="45">
+      <c r="B73" s="45">
         <v>3503</v>
       </c>
-      <c r="C72" s="45">
+      <c r="C73" s="45">
         <v>3233</v>
       </c>
-      <c r="D72" s="45">
+      <c r="D73" s="45">
         <v>3003</v>
       </c>
-      <c r="E72" s="45">
+      <c r="E73" s="45">
         <v>3072</v>
       </c>
-      <c r="F72" s="45">
+      <c r="F73" s="45">
         <v>2894</v>
       </c>
-      <c r="G72" s="45">
+      <c r="G73" s="45">
         <v>2459</v>
       </c>
-      <c r="H72" s="45">
+      <c r="H73" s="45">
         <v>2372</v>
       </c>
-      <c r="I72" s="45">
+      <c r="I73" s="45">
         <v>2381</v>
       </c>
-      <c r="J72" s="45">
+      <c r="J73" s="45">
         <v>2277</v>
       </c>
-      <c r="K72" s="45">
+      <c r="K73" s="45">
         <v>2277</v>
       </c>
-      <c r="L72" s="45">
+      <c r="L73" s="45">
         <v>2256</v>
       </c>
-      <c r="M72" s="45">
+      <c r="M73" s="45">
         <v>2260</v>
       </c>
-      <c r="N72" s="45">
+      <c r="N73" s="45">
         <v>2286</v>
       </c>
-      <c r="O72" s="45">
+      <c r="O73" s="45">
         <v>2325</v>
       </c>
-      <c r="P72" s="45">
+      <c r="P73" s="45">
         <v>2337</v>
       </c>
-      <c r="Q72" s="45">
+      <c r="Q73" s="45">
         <v>2372</v>
       </c>
-      <c r="R72" s="45">
+      <c r="R73" s="45">
         <v>2423</v>
       </c>
-      <c r="S72" s="46" t="s">
+      <c r="S73" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="T72" s="47">
+      <c r="T73" s="47">
         <v>2210</v>
       </c>
-      <c r="U72" s="11"/>
-    </row>
-    <row r="73" spans="1:21" s="41" customFormat="1" ht="12.75">
-      <c r="A73" s="48" t="s">
+      <c r="U73" s="11"/>
+    </row>
+    <row r="74" spans="1:21" s="41" customFormat="1" ht="12.75">
+      <c r="A74" s="48" t="s">
         <v>55</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-    </row>
-    <row r="74" spans="1:21" s="41" customFormat="1" ht="12.75">
-      <c r="A74" s="49" t="s">
-        <v>56</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -3849,7 +3934,9 @@
       <c r="U74" s="11"/>
     </row>
     <row r="75" spans="1:21" s="41" customFormat="1" ht="12.75">
-      <c r="A75" s="50"/>
+      <c r="A75" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -3894,257 +3981,264 @@
       <c r="T76" s="11"/>
       <c r="U76" s="11"/>
     </row>
-    <row r="77" spans="1:21" s="41" customFormat="1" ht="30" customHeight="1">
-      <c r="A77" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53"/>
+    <row r="77" spans="1:21" s="41" customFormat="1" ht="12.75">
+      <c r="A77" s="50"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
     </row>
-    <row r="78" spans="1:21" s="41" customFormat="1" ht="15">
-      <c r="A78" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="81"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
-      <c r="H78" s="81"/>
-      <c r="I78" s="81"/>
-      <c r="J78" s="81"/>
-      <c r="K78" s="81"/>
-      <c r="L78" s="81"/>
-      <c r="M78" s="81"/>
-      <c r="N78" s="81"/>
-      <c r="O78" s="81"/>
-      <c r="P78" s="81"/>
+    <row r="78" spans="1:21" s="41" customFormat="1" ht="30" customHeight="1">
+      <c r="A78" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="53"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
       <c r="U78" s="11"/>
     </row>
-    <row r="79" spans="1:21" s="41" customFormat="1" ht="12.75">
-      <c r="A79" s="42"/>
-      <c r="B79" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="G79" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="I79" s="95" t="s">
-        <v>8</v>
-      </c>
-      <c r="J79" s="95" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="L79" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="M79" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="N79" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="O79" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="P79" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q79" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="R79" s="96" t="s">
-        <v>17</v>
-      </c>
+    <row r="79" spans="1:21" s="41" customFormat="1" ht="15">
+      <c r="A79" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="81"/>
+      <c r="I79" s="81"/>
+      <c r="J79" s="81"/>
+      <c r="K79" s="81"/>
+      <c r="L79" s="81"/>
+      <c r="M79" s="81"/>
+      <c r="N79" s="81"/>
+      <c r="O79" s="81"/>
+      <c r="P79" s="81"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
       <c r="S79" s="11"/>
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
     </row>
     <row r="80" spans="1:21" s="41" customFormat="1" ht="12.75">
-      <c r="A80" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="11">
-        <v>1</v>
-      </c>
-      <c r="C80" s="11">
-        <v>1</v>
-      </c>
-      <c r="D80" s="11">
-        <v>2</v>
-      </c>
-      <c r="E80" s="11">
-        <v>2</v>
-      </c>
-      <c r="F80" s="11">
-        <v>2</v>
-      </c>
-      <c r="G80" s="11">
-        <v>1</v>
-      </c>
-      <c r="H80" s="11">
-        <v>1</v>
-      </c>
-      <c r="I80" s="11">
-        <v>1</v>
-      </c>
-      <c r="J80" s="11">
-        <v>1</v>
-      </c>
-      <c r="K80" s="11">
-        <v>1</v>
-      </c>
-      <c r="L80" s="11">
-        <v>1</v>
-      </c>
-      <c r="M80" s="11">
-        <v>1</v>
-      </c>
-      <c r="N80" s="11">
-        <v>1</v>
-      </c>
-      <c r="O80" s="11">
-        <v>1</v>
-      </c>
-      <c r="P80" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="51">
-        <v>1</v>
-      </c>
-      <c r="R80" s="51">
-        <v>1</v>
-      </c>
-      <c r="S80" s="11"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="G80" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="M80" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="N80" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="O80" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="P80" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q80" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="R80" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="S80" s="95" t="s">
+        <v>18</v>
+      </c>
       <c r="T80" s="11"/>
       <c r="U80" s="11"/>
     </row>
     <row r="81" spans="1:21" s="41" customFormat="1" ht="12.75">
-      <c r="A81" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="13">
-        <v>4</v>
-      </c>
-      <c r="C81" s="13">
-        <v>3</v>
-      </c>
-      <c r="D81" s="13">
-        <v>5</v>
-      </c>
-      <c r="E81" s="13">
-        <v>5</v>
-      </c>
-      <c r="F81" s="13">
-        <v>5</v>
-      </c>
-      <c r="G81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="H81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="I81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="J81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="K81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="L81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="M81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="N81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="O81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="P81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="R81" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="S81" s="11"/>
+      <c r="A81" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="11">
+        <v>1</v>
+      </c>
+      <c r="C81" s="11">
+        <v>1</v>
+      </c>
+      <c r="D81" s="11">
+        <v>2</v>
+      </c>
+      <c r="E81" s="11">
+        <v>2</v>
+      </c>
+      <c r="F81" s="11">
+        <v>2</v>
+      </c>
+      <c r="G81" s="11">
+        <v>1</v>
+      </c>
+      <c r="H81" s="11">
+        <v>1</v>
+      </c>
+      <c r="I81" s="11">
+        <v>1</v>
+      </c>
+      <c r="J81" s="11">
+        <v>1</v>
+      </c>
+      <c r="K81" s="11">
+        <v>1</v>
+      </c>
+      <c r="L81" s="11">
+        <v>1</v>
+      </c>
+      <c r="M81" s="11">
+        <v>1</v>
+      </c>
+      <c r="N81" s="11">
+        <v>1</v>
+      </c>
+      <c r="O81" s="11">
+        <v>1</v>
+      </c>
+      <c r="P81" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="51">
+        <v>1</v>
+      </c>
+      <c r="R81" s="51">
+        <v>1</v>
+      </c>
+      <c r="S81" s="104">
+        <v>1</v>
+      </c>
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
     </row>
     <row r="82" spans="1:21" s="41" customFormat="1" ht="12.75">
-      <c r="A82" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
+      <c r="A82" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="13">
+        <v>4</v>
+      </c>
+      <c r="C82" s="13">
+        <v>3</v>
+      </c>
+      <c r="D82" s="13">
+        <v>5</v>
+      </c>
+      <c r="E82" s="13">
+        <v>5</v>
+      </c>
+      <c r="F82" s="13">
+        <v>5</v>
+      </c>
+      <c r="G82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="H82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="I82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="J82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="K82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="L82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="M82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="N82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="O82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="P82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="R82" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="S82" s="105" t="s">
+        <v>64</v>
+      </c>
       <c r="T82" s="11"/>
       <c r="U82" s="11"/>
     </row>
     <row r="83" spans="1:21" s="41" customFormat="1" ht="12.75">
+      <c r="A83" s="52" t="s">
+        <v>59</v>
+      </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -4188,6 +4282,28 @@
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
     </row>
+    <row r="85" spans="1:21" s="41" customFormat="1" ht="12.75">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:K1"/>
